--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/CST4599 Thesis/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/CST4599 Thesis/CST4599/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5AE0A0-B4F1-F840-B6CC-E6C56B484AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F696676C-A5A8-AD4C-BDC4-E36DFE02F04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{BEB184E0-1909-DE46-BC9F-B8FEB3993F0A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{BEB184E0-1909-DE46-BC9F-B8FEB3993F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Active Worker" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
   <si>
     <t>Query 1</t>
   </si>
@@ -83,9 +83,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -100,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -123,18 +130,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,179 +965,232 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D025EB47-2154-D54D-A677-E8586F28556F}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="19">
+      <c r="A1" s="10"/>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="19">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="19">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="19">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="19">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="19">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="19">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="19">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="19">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="19">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="19">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="19">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="19">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="19">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="19">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="19">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="19">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="19">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="19">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="19">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="19">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1117,163 +1198,236 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A666725-20FC-7246-8F3D-B275A52C764A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/CST4599 Thesis/CST4599/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F696676C-A5A8-AD4C-BDC4-E36DFE02F04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1E75D8-B9C5-EA40-8636-ED8D5939DA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{BEB184E0-1909-DE46-BC9F-B8FEB3993F0A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{BEB184E0-1909-DE46-BC9F-B8FEB3993F0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="1 Active Worker" sheetId="1" r:id="rId1"/>
-    <sheet name="2 Active Workers" sheetId="2" r:id="rId2"/>
-    <sheet name="3 Active Workers" sheetId="3" r:id="rId3"/>
+    <sheet name="1 Active Worker" sheetId="8" r:id="rId1"/>
+    <sheet name="2 Active Workers" sheetId="7" r:id="rId2"/>
+    <sheet name="3 Active Workers" sheetId="6" r:id="rId3"/>
     <sheet name="4 Active Workers" sheetId="4" r:id="rId4"/>
     <sheet name="5 Active Workers" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
   <si>
     <t>Query 1</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>ORC Format</t>
-  </si>
-  <si>
-    <t>356MB</t>
   </si>
   <si>
     <t>1GB</t>
@@ -145,13 +142,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -478,21 +470,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC7645-989D-B746-99B9-D02CA7F7C3CD}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AEC4AA-24AE-B84B-A6AB-662A39E15093}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" ht="19">
+      <c r="A1" s="7"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -503,10 +497,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +511,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="19">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -526,135 +520,206 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="19">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:5" ht="19">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:5" ht="19">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:5" ht="19">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:5" ht="19">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:5" ht="19">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:5" ht="19">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:5" ht="19">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:5" ht="19">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:5" ht="19">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:5" ht="19">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:5" ht="19">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:5" ht="19">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
+    <row r="17" spans="1:5" ht="19">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="19">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="19">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="19">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8249C4FA-3C2D-E64B-AF50-C9DBB2F39DDD}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E173E69B-AED6-0C41-8462-5DD92769C377}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" ht="19">
+      <c r="A1" s="7"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,10 +730,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +744,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="19">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -688,135 +753,206 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="19">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:5" ht="19">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:5" ht="19">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:5" ht="19">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:5" ht="19">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:5" ht="19">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:5" ht="19">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:5" ht="19">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:5" ht="19">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:5" ht="19">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:5" ht="19">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:5" ht="19">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:5" ht="19">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
+    <row r="17" spans="1:5" ht="19">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="19">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="19">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="19">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E040747-A9F7-234D-A024-EDBFD0BA9F6A}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809F0329-72CE-0541-B748-629991F50173}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" ht="19">
+      <c r="A1" s="7"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,10 +963,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -841,7 +977,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="19">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -850,114 +986,183 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="19">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:5" ht="19">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:5" ht="19">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:5" ht="19">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:5" ht="19">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:5" ht="19">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:5" ht="19">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:5" ht="19">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:5" ht="19">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:5" ht="19">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:5" ht="19">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:5" ht="19">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:5" ht="19">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
+    <row r="17" spans="1:5" ht="19">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="19">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="19">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="19">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -967,222 +1172,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D025EB47-2154-D54D-A677-E8586F28556F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19">
-      <c r="A1" s="10"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="19">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1206,220 +1411,220 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="8"/>
-    <col min="3" max="3" width="15.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/CST4599 Thesis/CST4599/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1E75D8-B9C5-EA40-8636-ED8D5939DA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E256187C-C3F0-4643-8FB1-B644B4620115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{BEB184E0-1909-DE46-BC9F-B8FEB3993F0A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{BEB184E0-1909-DE46-BC9F-B8FEB3993F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Active Worker" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
   <si>
     <t>Query 1</t>
   </si>
@@ -70,17 +70,170 @@
     <t>15GB</t>
   </si>
   <si>
-    <t>93.136 seconds</t>
-  </si>
-  <si>
-    <t>0.108 seconds</t>
+    <t>19.76 seconds</t>
+  </si>
+  <si>
+    <t>64.594 seconds</t>
+  </si>
+  <si>
+    <t>173.964 seconds</t>
+  </si>
+  <si>
+    <t>222.925 seconds</t>
+  </si>
+  <si>
+    <t>12.202 seconds</t>
+  </si>
+  <si>
+    <t>46.44 seconds</t>
+  </si>
+  <si>
+    <t>89.62 seconds</t>
+  </si>
+  <si>
+    <t>140.087 seconds</t>
+  </si>
+  <si>
+    <t>13.189 seconds</t>
+  </si>
+  <si>
+    <t>51.119 seconds</t>
+  </si>
+  <si>
+    <t>92.106 seconds</t>
+  </si>
+  <si>
+    <t>143.366 seconds</t>
+  </si>
+  <si>
+    <t>12.552 seconds</t>
+  </si>
+  <si>
+    <t>47.672 seconds</t>
+  </si>
+  <si>
+    <t>91.115 seconds</t>
+  </si>
+  <si>
+    <t>153.267 seconds</t>
+  </si>
+  <si>
+    <t>0.098 seconds</t>
+  </si>
+  <si>
+    <t>0.09 seconds</t>
+  </si>
+  <si>
+    <t>5.606 seconds</t>
+  </si>
+  <si>
+    <t>15.53 seconds</t>
+  </si>
+  <si>
+    <t>27.533 seconds</t>
+  </si>
+  <si>
+    <t>40.557 seconds</t>
+  </si>
+  <si>
+    <t>2.561 seconds</t>
+  </si>
+  <si>
+    <t>3.508 seconds</t>
+  </si>
+  <si>
+    <t>4.508 seconds</t>
+  </si>
+  <si>
+    <t>6.518 seconds</t>
+  </si>
+  <si>
+    <t>2.497 seconds</t>
+  </si>
+  <si>
+    <t>5.507 seconds</t>
+  </si>
+  <si>
+    <t>9.507 second</t>
+  </si>
+  <si>
+    <t>13.512 seconds</t>
+  </si>
+  <si>
+    <t>47.513 seconds</t>
+  </si>
+  <si>
+    <t>195.628 seconds</t>
+  </si>
+  <si>
+    <t>377.777 seconds</t>
+  </si>
+  <si>
+    <t>571.03 seconds</t>
+  </si>
+  <si>
+    <t>76.56 seconds</t>
+  </si>
+  <si>
+    <t>317.428 seconds</t>
+  </si>
+  <si>
+    <t>618.945 seconds</t>
+  </si>
+  <si>
+    <t>941.944 seconds</t>
+  </si>
+  <si>
+    <t>0.085 seconds</t>
+  </si>
+  <si>
+    <t>6.469 seconds</t>
+  </si>
+  <si>
+    <t>2.483 seconds</t>
+  </si>
+  <si>
+    <t>4.469 seconds</t>
+  </si>
+  <si>
+    <t>329.651 seconds</t>
+  </si>
+  <si>
+    <t>1.898 seconds</t>
+  </si>
+  <si>
+    <t>21.296 seconds</t>
+  </si>
+  <si>
+    <t>6.618 seconds</t>
+  </si>
+  <si>
+    <t>11.549 seconds</t>
+  </si>
+  <si>
+    <t>1337.89 seconds</t>
+  </si>
+  <si>
+    <t>2.23 seconds</t>
+  </si>
+  <si>
+    <t>42.766 seconds</t>
+  </si>
+  <si>
+    <t>10.647 seconds</t>
+  </si>
+  <si>
+    <t>24.692 seconds</t>
+  </si>
+  <si>
+    <t>2616.904 seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,16 +248,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -138,17 +326,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -157,8 +369,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,20 +717,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AEC4AA-24AE-B84B-A6AB-662A39E15093}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19">
-      <c r="A1" s="7"/>
+      <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -501,7 +745,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -512,7 +756,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -521,7 +765,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -530,8 +774,8 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
@@ -539,7 +783,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -550,7 +794,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -559,7 +803,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -568,8 +812,8 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1"/>
@@ -577,7 +821,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="19">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -588,7 +832,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -597,7 +841,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -606,8 +850,8 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
@@ -615,7 +859,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -626,7 +870,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="2"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -635,7 +879,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="2"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -644,8 +888,8 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1"/>
@@ -653,7 +897,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -664,7 +908,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="2"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -673,7 +917,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="2"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -682,8 +926,8 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1"/>
@@ -712,14 +956,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19">
-      <c r="A1" s="7"/>
+      <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -734,7 +978,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -745,7 +989,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -754,7 +998,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -763,8 +1007,8 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
@@ -772,7 +1016,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -783,7 +1027,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -792,7 +1036,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -801,8 +1045,8 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1"/>
@@ -810,7 +1054,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="19">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -821,7 +1065,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -830,7 +1074,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -839,8 +1083,8 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
@@ -848,7 +1092,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -859,7 +1103,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="2"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,7 +1112,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="2"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -877,8 +1121,8 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1"/>
@@ -886,7 +1130,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -897,7 +1141,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="2"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,7 +1150,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="2"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -915,8 +1159,8 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1"/>
@@ -945,14 +1189,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19">
-      <c r="A1" s="7"/>
+      <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -967,7 +1211,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -978,7 +1222,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,7 +1231,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -996,8 +1240,8 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
@@ -1005,7 +1249,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1016,7 +1260,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1269,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1278,8 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1"/>
@@ -1043,7 +1287,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="19">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1054,7 +1298,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1307,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1072,8 +1316,8 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
@@ -1081,7 +1325,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1092,7 +1336,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="2"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1101,7 +1345,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="2"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1110,8 +1354,8 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1"/>
@@ -1119,7 +1363,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1130,7 +1374,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="2"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1383,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="2"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,8 +1392,8 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1"/>
@@ -1173,19 +1417,19 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19">
-      <c r="A1" s="7"/>
+      <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1444,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1211,7 +1455,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +1464,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,8 +1473,8 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
@@ -1238,7 +1482,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1249,7 +1493,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1502,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1267,8 +1511,8 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1"/>
@@ -1276,7 +1520,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="19">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1287,7 +1531,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +1540,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1305,8 +1549,8 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
@@ -1314,7 +1558,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1325,7 +1569,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="2"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1334,7 +1578,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="2"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,8 +1587,8 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1"/>
@@ -1352,7 +1596,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1363,7 +1607,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="2"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1616,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="2"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1381,8 +1625,8 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1"/>
@@ -1405,226 +1649,333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A666725-20FC-7246-8F3D-B275A52C764A}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="9"/>
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="17"/>
+      <c r="B7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/CST4599 Thesis/CST4599/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E256187C-C3F0-4643-8FB1-B644B4620115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0D51B3-5D89-8F4E-90B5-A6A1398F648D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{BEB184E0-1909-DE46-BC9F-B8FEB3993F0A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="71">
   <si>
     <t>Query 1</t>
   </si>
@@ -227,6 +227,21 @@
   </si>
   <si>
     <t>2616.904 seconds</t>
+  </si>
+  <si>
+    <t>0.115 seconds</t>
+  </si>
+  <si>
+    <t>56.95 seconds</t>
+  </si>
+  <si>
+    <t>16.624 seconds</t>
+  </si>
+  <si>
+    <t>36.997 seconds</t>
+  </si>
+  <si>
+    <t>3990.233 seconds</t>
   </si>
 </sst>
 </file>
@@ -358,18 +373,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -718,29 +725,29 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="5"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -748,191 +755,191 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="19">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="19">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -951,29 +958,29 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E21" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="5"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -981,191 +988,191 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="19">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="19">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1184,29 +1191,29 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="5"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1214,191 +1221,191 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="19">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="19">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1417,29 +1424,29 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="5"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1447,191 +1454,191 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="19">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="19">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1650,332 +1657,342 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="8"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="9"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13"/>
-      <c r="B21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/CST4599 Thesis/CST4599/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0D51B3-5D89-8F4E-90B5-A6A1398F648D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79493930-9607-2145-BCB4-543A73D17E68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{BEB184E0-1909-DE46-BC9F-B8FEB3993F0A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{BEB184E0-1909-DE46-BC9F-B8FEB3993F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Active Worker" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="110">
   <si>
     <t>Query 1</t>
   </si>
@@ -242,6 +242,123 @@
   </si>
   <si>
     <t>3990.233 seconds</t>
+  </si>
+  <si>
+    <t>15.096 seconds</t>
+  </si>
+  <si>
+    <t>46.495 seconds</t>
+  </si>
+  <si>
+    <t>87.64 seconds</t>
+  </si>
+  <si>
+    <t>132.223 seconds</t>
+  </si>
+  <si>
+    <t>13.621 seconds</t>
+  </si>
+  <si>
+    <t>48.686 seconds</t>
+  </si>
+  <si>
+    <t>93.044 seconds</t>
+  </si>
+  <si>
+    <t>140.661 seconds</t>
+  </si>
+  <si>
+    <t>12.605 seconds</t>
+  </si>
+  <si>
+    <t>46.709 seconds</t>
+  </si>
+  <si>
+    <t>88.998 seconds</t>
+  </si>
+  <si>
+    <t>134.581 seconds</t>
+  </si>
+  <si>
+    <t>12.524 seconds</t>
+  </si>
+  <si>
+    <t>46.656 seconds</t>
+  </si>
+  <si>
+    <t>89.304 seconds</t>
+  </si>
+  <si>
+    <t>135.127 seconds</t>
+  </si>
+  <si>
+    <t>73.607 seconds</t>
+  </si>
+  <si>
+    <t>302.468 seconds</t>
+  </si>
+  <si>
+    <t>584.831 seconds</t>
+  </si>
+  <si>
+    <t>886.595 seconds</t>
+  </si>
+  <si>
+    <t>0.423 seconds</t>
+  </si>
+  <si>
+    <t>0.097 seconds</t>
+  </si>
+  <si>
+    <t>0.099 seconds</t>
+  </si>
+  <si>
+    <t>0.104 seconds</t>
+  </si>
+  <si>
+    <t>5.526 seconds</t>
+  </si>
+  <si>
+    <t>16.507 seconds</t>
+  </si>
+  <si>
+    <t>30.51 seconds</t>
+  </si>
+  <si>
+    <t>44.54 seconds</t>
+  </si>
+  <si>
+    <t>4.484 seconds</t>
+  </si>
+  <si>
+    <t>6.491 seconds</t>
+  </si>
+  <si>
+    <t>9.504 seconds</t>
+  </si>
+  <si>
+    <t>3.499 seconds</t>
+  </si>
+  <si>
+    <t>7.495 seconds</t>
+  </si>
+  <si>
+    <t>11.51 seconds</t>
+  </si>
+  <si>
+    <t>15.511 seconds</t>
+  </si>
+  <si>
+    <t>46.512 seconds</t>
+  </si>
+  <si>
+    <t>185.646 seconds</t>
+  </si>
+  <si>
+    <t>360.824 seconds</t>
+  </si>
+  <si>
+    <t>545.085 seconds</t>
   </si>
 </sst>
 </file>
@@ -384,28 +501,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -724,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AEC4AA-24AE-B84B-A6AB-662A39E15093}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -752,194 +869,194 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="19">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -985,194 +1102,194 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="19">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1218,194 +1335,194 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="19">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1423,15 +1540,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D025EB47-2154-D54D-A677-E8586F28556F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1451,194 +1565,274 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="19">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="19">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="19">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="19">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="19">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1656,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A666725-20FC-7246-8F3D-B275A52C764A}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1685,312 +1879,312 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>70</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/CST4599 Thesis/CST4599/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7ED18E-33B4-1B4C-B6D7-323928402A27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374CF6A8-DF8C-A24B-9388-B73327934777}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Active Worker" sheetId="1" r:id="rId1"/>
@@ -269,6 +269,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -281,14 +287,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -299,14 +299,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7279,16 +7279,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -8240,16 +8237,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -16242,7 +16236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="E13" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:S1"/>
     </sheetView>
   </sheetViews>
@@ -16265,32 +16259,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="O1" s="21" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="O1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -16321,7 +16315,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -16334,7 +16328,7 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -16351,7 +16345,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -16362,7 +16356,7 @@
         <v>0.09</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
@@ -16377,7 +16371,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -16388,7 +16382,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="4" t="s">
         <v>7</v>
       </c>
@@ -16403,7 +16397,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -16414,7 +16408,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="O7" s="11"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="5" t="s">
         <v>8</v>
       </c>
@@ -16429,7 +16423,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -16442,7 +16436,7 @@
         <v>5.4930000000000003</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -16459,7 +16453,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -16470,7 +16464,7 @@
         <v>15.504</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="O9" s="10"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="6" t="s">
         <v>6</v>
       </c>
@@ -16485,7 +16479,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -16496,7 +16490,7 @@
         <v>28.515000000000001</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="O10" s="10"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="6" t="s">
         <v>7</v>
       </c>
@@ -16511,7 +16505,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
@@ -16522,7 +16516,7 @@
         <v>41.524000000000001</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="7" t="s">
         <v>8</v>
       </c>
@@ -16537,7 +16531,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -16550,7 +16544,7 @@
         <v>2.4830000000000001</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -16567,7 +16561,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -16578,7 +16572,7 @@
         <v>3.4790000000000001</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="O13" s="11"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="4" t="s">
         <v>6</v>
       </c>
@@ -16593,7 +16587,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -16604,7 +16598,7 @@
         <v>4.4829999999999997</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="O14" s="11"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="4" t="s">
         <v>7</v>
       </c>
@@ -16619,7 +16613,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
@@ -16630,7 +16624,7 @@
         <v>6.4829999999999997</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="O15" s="11"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="5" t="s">
         <v>8</v>
       </c>
@@ -16645,7 +16639,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -16658,7 +16652,7 @@
         <v>2.4769999999999999</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="6" t="s">
@@ -16675,7 +16669,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -16686,7 +16680,7 @@
         <v>5.4820000000000002</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="6" t="s">
         <v>6</v>
       </c>
@@ -16701,7 +16695,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -16712,7 +16706,7 @@
         <v>9.5</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="6" t="s">
         <v>7</v>
       </c>
@@ -16727,7 +16721,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
@@ -16738,7 +16732,7 @@
         <v>13.497</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="7" t="s">
         <v>8</v>
       </c>
@@ -16753,7 +16747,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -16766,7 +16760,7 @@
         <v>44.503999999999998</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="P20" s="4" t="s">
@@ -16783,7 +16777,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
@@ -16794,7 +16788,7 @@
         <v>181.61799999999999</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="O21" s="11"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="4" t="s">
         <v>6</v>
       </c>
@@ -16809,7 +16803,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
@@ -16820,7 +16814,7 @@
         <v>351.78199999999998</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="O22" s="11"/>
+      <c r="O22" s="13"/>
       <c r="P22" s="4" t="s">
         <v>7</v>
       </c>
@@ -16835,7 +16829,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -16846,7 +16840,7 @@
         <v>532.16800000000001</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="4" t="s">
         <v>8</v>
       </c>
@@ -16908,32 +16902,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="O1" s="21" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="O1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -16964,7 +16958,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -16977,7 +16971,7 @@
         <v>0.45</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -16994,7 +16988,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -17005,7 +16999,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
@@ -17020,7 +17014,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -17031,7 +17025,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="4" t="s">
         <v>7</v>
       </c>
@@ -17046,7 +17040,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -17057,7 +17051,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="O7" s="11"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="5" t="s">
         <v>8</v>
       </c>
@@ -17072,7 +17066,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -17085,7 +17079,7 @@
         <v>5.5119999999999996</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -17102,7 +17096,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -17113,7 +17107,7 @@
         <v>15.516999999999999</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="O9" s="10"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="6" t="s">
         <v>6</v>
       </c>
@@ -17128,7 +17122,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -17139,7 +17133,7 @@
         <v>27.527999999999999</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="O10" s="10"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="6" t="s">
         <v>7</v>
       </c>
@@ -17154,7 +17148,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
@@ -17165,7 +17159,7 @@
         <v>41.546999999999997</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="7" t="s">
         <v>8</v>
       </c>
@@ -17180,7 +17174,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -17193,7 +17187,7 @@
         <v>2.5129999999999999</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -17210,7 +17204,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -17221,7 +17215,7 @@
         <v>3.5089999999999999</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="O13" s="11"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="4" t="s">
         <v>6</v>
       </c>
@@ -17236,7 +17230,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -17247,7 +17241,7 @@
         <v>5.5090000000000003</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="O14" s="11"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="4" t="s">
         <v>7</v>
       </c>
@@ -17262,7 +17256,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
@@ -17273,7 +17267,7 @@
         <v>6.5190000000000001</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="O15" s="11"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="5" t="s">
         <v>8</v>
       </c>
@@ -17288,7 +17282,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -17301,7 +17295,7 @@
         <v>2.5259999999999998</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="6" t="s">
@@ -17318,7 +17312,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -17329,7 +17323,7 @@
         <v>5.5030000000000001</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="6" t="s">
         <v>6</v>
       </c>
@@ -17344,7 +17338,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -17355,7 +17349,7 @@
         <v>9.51</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="6" t="s">
         <v>7</v>
       </c>
@@ -17370,7 +17364,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
@@ -17381,7 +17375,7 @@
         <v>13.526</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="7" t="s">
         <v>8</v>
       </c>
@@ -17396,7 +17390,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -17409,7 +17403,7 @@
         <v>44.536000000000001</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="P20" s="4" t="s">
@@ -17426,7 +17420,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
@@ -17437,7 +17431,7 @@
         <v>182.648</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="O21" s="11"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="4" t="s">
         <v>6</v>
       </c>
@@ -17452,7 +17446,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
@@ -17463,7 +17457,7 @@
         <v>355.83499999999998</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="O22" s="11"/>
+      <c r="O22" s="13"/>
       <c r="P22" s="4" t="s">
         <v>7</v>
       </c>
@@ -17478,7 +17472,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -17489,7 +17483,7 @@
         <v>536.10699999999997</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="4" t="s">
         <v>8</v>
       </c>
@@ -17551,32 +17545,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="O1" s="21" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="O1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -17607,7 +17601,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -17620,7 +17614,7 @@
         <v>0.38600000000000001</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -17637,7 +17631,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -17648,7 +17642,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
@@ -17663,7 +17657,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -17674,7 +17668,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="4" t="s">
         <v>7</v>
       </c>
@@ -17689,7 +17683,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -17700,7 +17694,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="O7" s="11"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="5" t="s">
         <v>8</v>
       </c>
@@ -17715,7 +17709,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -17728,7 +17722,7 @@
         <v>5.49</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -17745,7 +17739,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -17756,7 +17750,7 @@
         <v>17.503</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="O9" s="10"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="6" t="s">
         <v>6</v>
       </c>
@@ -17771,7 +17765,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -17782,7 +17776,7 @@
         <v>29.558</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="O10" s="10"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="6" t="s">
         <v>7</v>
       </c>
@@ -17797,7 +17791,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
@@ -17808,7 +17802,7 @@
         <v>45.526000000000003</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="7" t="s">
         <v>8</v>
       </c>
@@ -17823,7 +17817,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -17836,7 +17830,7 @@
         <v>2.4740000000000002</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -17853,7 +17847,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -17864,7 +17858,7 @@
         <v>3.4750000000000001</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="O13" s="11"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="4" t="s">
         <v>6</v>
       </c>
@@ -17879,7 +17873,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -17890,7 +17884,7 @@
         <v>6.4779999999999998</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="O14" s="11"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="4" t="s">
         <v>7</v>
       </c>
@@ -17905,7 +17899,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
@@ -17916,7 +17910,7 @@
         <v>8.4930000000000003</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="O15" s="11"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="5" t="s">
         <v>8</v>
       </c>
@@ -17931,7 +17925,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -17944,7 +17938,7 @@
         <v>2.4729999999999999</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="6" t="s">
@@ -17961,7 +17955,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -17972,7 +17966,7 @@
         <v>7.4790000000000001</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="6" t="s">
         <v>6</v>
       </c>
@@ -17987,7 +17981,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -17998,7 +17992,7 @@
         <v>10.484999999999999</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="6" t="s">
         <v>7</v>
       </c>
@@ -18013,7 +18007,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
@@ -18024,7 +18018,7 @@
         <v>15.489000000000001</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="7" t="s">
         <v>8</v>
       </c>
@@ -18039,7 +18033,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -18052,7 +18046,7 @@
         <v>46.494999999999997</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="P20" s="4" t="s">
@@ -18069,7 +18063,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
@@ -18080,7 +18074,7 @@
         <v>196.59899999999999</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="O21" s="11"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="4" t="s">
         <v>6</v>
       </c>
@@ -18095,7 +18089,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
@@ -18106,7 +18100,7 @@
         <v>379.82900000000001</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="O22" s="11"/>
+      <c r="O22" s="13"/>
       <c r="P22" s="4" t="s">
         <v>7</v>
       </c>
@@ -18121,7 +18115,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -18132,7 +18126,7 @@
         <v>570.06100000000004</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="4" t="s">
         <v>8</v>
       </c>
@@ -18196,32 +18190,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="O1" s="21" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="O1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -18252,7 +18246,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -18282,7 +18276,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -18308,7 +18302,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -18334,7 +18328,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -18360,7 +18354,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -18373,7 +18367,7 @@
         <v>5.5259999999999998</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -18390,7 +18384,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -18401,7 +18395,7 @@
         <v>16.507000000000001</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="O9" s="15"/>
+      <c r="O9" s="21"/>
       <c r="P9" s="6" t="s">
         <v>6</v>
       </c>
@@ -18416,7 +18410,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -18427,7 +18421,7 @@
         <v>30.51</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="O10" s="15"/>
+      <c r="O10" s="21"/>
       <c r="P10" s="6" t="s">
         <v>7</v>
       </c>
@@ -18442,7 +18436,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
@@ -18453,7 +18447,7 @@
         <v>44.54</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="O11" s="16"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="7" t="s">
         <v>8</v>
       </c>
@@ -18468,7 +18462,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -18498,7 +18492,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -18524,7 +18518,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -18550,7 +18544,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
@@ -18576,7 +18570,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -18589,7 +18583,7 @@
         <v>3.4990000000000001</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="20" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="6" t="s">
@@ -18606,7 +18600,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -18617,7 +18611,7 @@
         <v>7.4950000000000001</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="O17" s="15"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="6" t="s">
         <v>6</v>
       </c>
@@ -18632,7 +18626,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -18643,7 +18637,7 @@
         <v>11.51</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="O18" s="15"/>
+      <c r="O18" s="21"/>
       <c r="P18" s="6" t="s">
         <v>7</v>
       </c>
@@ -18658,7 +18652,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
@@ -18669,7 +18663,7 @@
         <v>15.510999999999999</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="O19" s="16"/>
+      <c r="O19" s="22"/>
       <c r="P19" s="7" t="s">
         <v>8</v>
       </c>
@@ -18684,7 +18678,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -18714,7 +18708,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
@@ -18740,7 +18734,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
@@ -18766,7 +18760,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -18818,7 +18812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -18846,32 +18840,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="O1" s="21" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -18902,7 +18896,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -18917,7 +18911,7 @@
       <c r="E4" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -18934,7 +18928,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -18947,7 +18941,7 @@
       <c r="E5" s="4">
         <v>1.8979999999999999</v>
       </c>
-      <c r="O5" s="11"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
@@ -18962,7 +18956,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -18975,7 +18969,7 @@
       <c r="E6" s="4">
         <v>2.23</v>
       </c>
-      <c r="O6" s="11"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="4" t="s">
         <v>7</v>
       </c>
@@ -18990,7 +18984,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -19003,7 +18997,7 @@
       <c r="E7" s="4">
         <v>0.115</v>
       </c>
-      <c r="O7" s="11"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="5" t="s">
         <v>8</v>
       </c>
@@ -19018,7 +19012,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -19033,7 +19027,7 @@
       <c r="E8" s="6">
         <v>6.4690000000000003</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -19050,7 +19044,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -19063,7 +19057,7 @@
       <c r="E9" s="6">
         <v>21.295999999999999</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="6" t="s">
         <v>6</v>
       </c>
@@ -19078,7 +19072,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -19091,7 +19085,7 @@
       <c r="E10" s="6">
         <v>42.765999999999998</v>
       </c>
-      <c r="O10" s="10"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="6" t="s">
         <v>7</v>
       </c>
@@ -19106,7 +19100,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
@@ -19119,7 +19113,7 @@
       <c r="E11" s="6">
         <v>56.95</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="7" t="s">
         <v>8</v>
       </c>
@@ -19134,7 +19128,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -19149,7 +19143,7 @@
       <c r="E12" s="4">
         <v>2.4830000000000001</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -19166,7 +19160,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -19179,7 +19173,7 @@
       <c r="E13" s="4">
         <v>6.6180000000000003</v>
       </c>
-      <c r="O13" s="11"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="4" t="s">
         <v>6</v>
       </c>
@@ -19194,7 +19188,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -19207,7 +19201,7 @@
       <c r="E14" s="4">
         <v>10.647</v>
       </c>
-      <c r="O14" s="11"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="4" t="s">
         <v>7</v>
       </c>
@@ -19222,7 +19216,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
@@ -19235,7 +19229,7 @@
       <c r="E15" s="4">
         <v>16.623999999999999</v>
       </c>
-      <c r="O15" s="11"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="5" t="s">
         <v>8</v>
       </c>
@@ -19250,7 +19244,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -19265,7 +19259,7 @@
       <c r="E16" s="6">
         <v>4.4690000000000003</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="6" t="s">
@@ -19282,7 +19276,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -19295,7 +19289,7 @@
       <c r="E17" s="6">
         <v>11.548999999999999</v>
       </c>
-      <c r="O17" s="10"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="6" t="s">
         <v>6</v>
       </c>
@@ -19310,7 +19304,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -19323,7 +19317,7 @@
       <c r="E18" s="6">
         <v>24.692</v>
       </c>
-      <c r="O18" s="10"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="6" t="s">
         <v>7</v>
       </c>
@@ -19338,7 +19332,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
@@ -19351,7 +19345,7 @@
       <c r="E19" s="6">
         <v>36.997</v>
       </c>
-      <c r="O19" s="10"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="7" t="s">
         <v>8</v>
       </c>
@@ -19366,7 +19360,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -19381,7 +19375,7 @@
       <c r="E20" s="4">
         <v>329.65100000000001</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="P20" s="4" t="s">
@@ -19398,7 +19392,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
@@ -19411,7 +19405,7 @@
       <c r="E21" s="4">
         <v>1337.89</v>
       </c>
-      <c r="O21" s="11"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="4" t="s">
         <v>6</v>
       </c>
@@ -19426,7 +19420,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
@@ -19439,7 +19433,7 @@
       <c r="E22" s="4">
         <v>2616.904</v>
       </c>
-      <c r="O22" s="11"/>
+      <c r="O22" s="13"/>
       <c r="P22" s="4" t="s">
         <v>7</v>
       </c>
@@ -19454,7 +19448,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -19467,7 +19461,7 @@
       <c r="E23" s="4">
         <v>3990.2330000000002</v>
       </c>
-      <c r="O23" s="11"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="4" t="s">
         <v>8</v>
       </c>
